--- a/data/trans_orig/P24B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33DEC72B-A27D-4BD4-BE9F-0E9B6213DA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CA2FF64-74DC-4F94-B8BA-AB468E4566A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73DC9602-5228-44FE-9E05-FE9C8C4D77AF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92909D56-C870-4DA1-BEEE-70E1B1C514EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="486">
   <si>
     <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>18,3%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
   </si>
   <si>
     <t>12,3%</t>
@@ -94,10 +94,10 @@
     <t>16,46%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>Igual</t>
@@ -106,10 +106,10 @@
     <t>72,53%</t>
   </si>
   <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>67,8%</t>
@@ -124,10 +124,10 @@
     <t>71,07%</t>
   </si>
   <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
   </si>
   <si>
     <t>Más</t>
@@ -136,10 +136,10 @@
     <t>9,17%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
   </si>
   <si>
     <t>19,9%</t>
@@ -154,1134 +154,1149 @@
     <t>12,47%</t>
   </si>
   <si>
-    <t>6,04%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2015 (Tasa respuesta: 30,07%)</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
   </si>
   <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
   </si>
   <si>
     <t>16,94%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2015 (Tasa respuesta: 30,07%)</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
     <t>24,41%</t>
   </si>
   <si>
@@ -1333,9 +1348,6 @@
     <t>8,67%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
     <t>31,55%</t>
   </si>
   <si>
@@ -1402,9 +1414,6 @@
     <t>16,65%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
     <t>21,71%</t>
   </si>
   <si>
@@ -1481,9 +1490,6 @@
   </si>
   <si>
     <t>11,28%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
   </si>
   <si>
     <t>11,1%</t>
@@ -1901,7 +1907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF528577-169A-4485-B368-A04DB121D896}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF8B2D3-454A-4D30-B122-6E5097A082AE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2849,13 +2855,13 @@
         <v>63951</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -2864,13 +2870,13 @@
         <v>63336</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>126</v>
@@ -2879,13 +2885,13 @@
         <v>127287</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2906,13 @@
         <v>272836</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="H21" s="7">
         <v>167</v>
@@ -2915,13 +2921,13 @@
         <v>173523</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>454</v>
@@ -2930,13 +2936,13 @@
         <v>446360</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2957,13 @@
         <v>68957</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>66</v>
@@ -2966,13 +2972,13 @@
         <v>67535</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>135</v>
@@ -2984,10 +2990,10 @@
         <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3061,13 @@
         <v>215817</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>152</v>
@@ -3070,13 +3076,13 @@
         <v>159958</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>362</v>
@@ -3085,13 +3091,13 @@
         <v>375775</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3112,13 @@
         <v>975027</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>515</v>
@@ -3121,10 +3127,10 @@
         <v>526495</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>164</v>
@@ -3270,7 +3276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAFFBDA-1EDD-49C8-84E5-3C7FCE749836}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB3F587-57A7-44F8-A89C-14193E4F0E18}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3499,10 +3505,10 @@
         <v>196</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -3511,13 +3517,13 @@
         <v>7093</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -3526,13 +3532,13 @@
         <v>17018</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3606,13 @@
         <v>63139</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -3615,13 +3621,13 @@
         <v>31099</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -3630,13 +3636,13 @@
         <v>94237</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3657,13 @@
         <v>121627</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="H9" s="7">
         <v>74</v>
@@ -3666,13 +3672,13 @@
         <v>79454</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M9" s="7">
         <v>189</v>
@@ -3681,13 +3687,13 @@
         <v>201081</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3708,13 @@
         <v>33157</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -3717,13 +3723,13 @@
         <v>31270</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -3732,13 +3738,13 @@
         <v>64427</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3812,13 @@
         <v>136058</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H12" s="7">
         <v>68</v>
@@ -3821,13 +3827,13 @@
         <v>74307</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M12" s="7">
         <v>188</v>
@@ -3836,13 +3842,13 @@
         <v>210365</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3863,13 @@
         <v>194630</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -3872,13 +3878,13 @@
         <v>156672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>325</v>
@@ -3887,13 +3893,13 @@
         <v>351302</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3914,13 @@
         <v>73846</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>54</v>
@@ -3923,13 +3929,13 @@
         <v>59368</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -3938,13 +3944,13 @@
         <v>133215</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4018,13 @@
         <v>98556</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -4027,13 +4033,13 @@
         <v>67481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>146</v>
@@ -4042,13 +4048,13 @@
         <v>166037</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4069,13 @@
         <v>163531</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>97</v>
@@ -4078,13 +4084,13 @@
         <v>107833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>247</v>
@@ -4093,13 +4099,13 @@
         <v>271364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4120,13 @@
         <v>52590</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -4129,13 +4135,13 @@
         <v>54582</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M18" s="7">
         <v>98</v>
@@ -4144,13 +4150,13 @@
         <v>107172</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4224,13 @@
         <v>98586</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -4233,13 +4239,13 @@
         <v>80785</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -4248,13 +4254,13 @@
         <v>179371</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4275,13 @@
         <v>218376</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H21" s="7">
         <v>150</v>
@@ -4284,13 +4290,13 @@
         <v>159699</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M21" s="7">
         <v>362</v>
@@ -4299,13 +4305,13 @@
         <v>378074</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4326,13 @@
         <v>47376</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -4335,13 +4341,13 @@
         <v>53702</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M22" s="7">
         <v>97</v>
@@ -4350,13 +4356,13 @@
         <v>101078</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4430,13 @@
         <v>406062</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H24" s="7">
         <v>237</v>
@@ -4439,13 +4445,13 @@
         <v>258188</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M24" s="7">
         <v>612</v>
@@ -4454,13 +4460,13 @@
         <v>664250</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4481,13 @@
         <v>730176</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H25" s="7">
         <v>472</v>
@@ -4490,13 +4496,13 @@
         <v>512066</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M25" s="7">
         <v>1163</v>
@@ -4505,13 +4511,13 @@
         <v>1242242</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4532,13 @@
         <v>216894</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>326</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H26" s="7">
         <v>189</v>
@@ -4541,13 +4547,13 @@
         <v>206016</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M26" s="7">
         <v>391</v>
@@ -4556,13 +4562,13 @@
         <v>422910</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,7 +4645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1261FFBC-9B13-407D-BBAF-192F7C47E7C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C49C42-332E-4B57-9930-92467BDE65D4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4656,7 +4662,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4763,13 +4769,13 @@
         <v>12432</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4778,13 +4784,13 @@
         <v>5255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4793,13 +4799,13 @@
         <v>17687</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4820,13 @@
         <v>36437</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4829,13 +4835,13 @@
         <v>20075</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -4844,13 +4850,13 @@
         <v>56512</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4871,13 @@
         <v>1032</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4880,13 +4886,13 @@
         <v>6500</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -4895,13 +4901,13 @@
         <v>7532</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4975,13 @@
         <v>36066</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -4984,13 +4990,13 @@
         <v>23805</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>58</v>
@@ -4999,13 +5005,13 @@
         <v>59870</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5026,13 @@
         <v>140025</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>368</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H9" s="7">
         <v>99</v>
@@ -5035,13 +5041,13 @@
         <v>99989</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M9" s="7">
         <v>235</v>
@@ -5050,13 +5056,13 @@
         <v>240013</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5077,13 @@
         <v>23559</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5086,10 +5092,10 @@
         <v>12786</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>94</v>
@@ -5101,13 +5107,13 @@
         <v>36345</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5181,13 @@
         <v>67569</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H12" s="7">
         <v>54</v>
@@ -5190,13 +5196,13 @@
         <v>56779</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M12" s="7">
         <v>114</v>
@@ -5205,13 +5211,13 @@
         <v>124348</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5232,13 @@
         <v>227538</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H13" s="7">
         <v>170</v>
@@ -5241,13 +5247,13 @@
         <v>173722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>377</v>
@@ -5256,13 +5262,13 @@
         <v>401260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>397</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5283,13 @@
         <v>37824</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -5292,13 +5298,13 @@
         <v>37505</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -5307,13 +5313,13 @@
         <v>75329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5387,13 @@
         <v>53577</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -5396,13 +5402,13 @@
         <v>54791</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -5411,13 +5417,13 @@
         <v>108367</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5438,13 @@
         <v>218266</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>140</v>
@@ -5447,13 +5453,13 @@
         <v>145498</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>334</v>
@@ -5462,13 +5468,13 @@
         <v>363763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,10 +5489,10 @@
         <v>36151</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>76</v>
@@ -5498,13 +5504,13 @@
         <v>23081</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -5513,13 +5519,13 @@
         <v>59232</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>431</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5593,13 @@
         <v>88292</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -5602,13 +5608,13 @@
         <v>57605</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -5617,13 +5623,13 @@
         <v>145897</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5644,13 @@
         <v>150266</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H21" s="7">
         <v>152</v>
@@ -5653,13 +5659,13 @@
         <v>156190</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M21" s="7">
         <v>302</v>
@@ -5668,13 +5674,13 @@
         <v>306456</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5695,13 @@
         <v>41305</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -5704,13 +5710,13 @@
         <v>42703</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>454</v>
+        <v>308</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -5719,13 +5725,13 @@
         <v>84008</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5799,13 @@
         <v>257936</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H24" s="7">
         <v>188</v>
@@ -5808,13 +5814,13 @@
         <v>198234</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M24" s="7">
         <v>429</v>
@@ -5823,13 +5829,13 @@
         <v>456170</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5850,13 @@
         <v>772532</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H25" s="7">
         <v>582</v>
@@ -5859,13 +5865,13 @@
         <v>595473</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M25" s="7">
         <v>1302</v>
@@ -5874,13 +5880,13 @@
         <v>1368005</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5901,13 @@
         <v>139871</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H26" s="7">
         <v>117</v>
@@ -5910,10 +5916,10 @@
         <v>122575</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>101</v>
@@ -5925,13 +5931,13 @@
         <v>262446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>481</v>
+        <v>126</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P24B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CA2FF64-74DC-4F94-B8BA-AB468E4566A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D88DAF4-E87D-4815-82B9-6DE27D8A5891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92909D56-C870-4DA1-BEEE-70E1B1C514EB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C34E8CF-4CB6-4A65-91D0-374016F72D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Menos</t>
@@ -76,10 +76,10 @@
     <t>18,3%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
   <si>
     <t>12,3%</t>
@@ -88,1414 +88,1414 @@
     <t>3,87%</t>
   </si>
   <si>
-    <t>33,17%</t>
+    <t>32,7%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>Igual</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>Más</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2016 (Tasa respuesta: 30,07%)</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>Igual</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>Más</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
   </si>
   <si>
     <t>12,58%</t>
   </si>
   <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2015 (Tasa respuesta: 30,07%)</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
+    <t>11,24%</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +1907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF8B2D3-454A-4D30-B122-6E5097A082AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BB3580-A894-4002-B030-93683731F661}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2855,13 +2855,13 @@
         <v>63951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -2870,13 +2870,13 @@
         <v>63336</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>126</v>
@@ -2885,13 +2885,13 @@
         <v>127287</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2906,13 @@
         <v>272836</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>167</v>
@@ -2921,13 +2921,13 @@
         <v>173523</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>454</v>
@@ -2936,13 +2936,13 @@
         <v>446360</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2957,13 @@
         <v>68957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>66</v>
@@ -2972,13 +2972,13 @@
         <v>67535</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>135</v>
@@ -2990,10 +2990,10 @@
         <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3061,13 @@
         <v>215817</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>152</v>
@@ -3076,10 +3076,10 @@
         <v>159958</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>155</v>
@@ -3196,10 +3196,10 @@
         <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,7 +3255,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3276,7 +3276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB3F587-57A7-44F8-A89C-14193E4F0E18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D371EA-6AB4-4674-92B2-2D6C9FAA0638}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3293,7 +3293,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3400,13 +3400,13 @@
         <v>9723</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3415,13 +3415,13 @@
         <v>4517</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3430,13 +3430,13 @@
         <v>14240</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3451,13 @@
         <v>32012</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -3466,13 +3466,13 @@
         <v>8408</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -3484,10 +3484,10 @@
         <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3502,13 @@
         <v>9925</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -3517,13 +3517,13 @@
         <v>7093</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -3532,13 +3532,13 @@
         <v>17018</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3606,13 @@
         <v>63139</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -3621,13 +3621,13 @@
         <v>31099</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -3636,13 +3636,13 @@
         <v>94237</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3657,13 @@
         <v>121627</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H9" s="7">
         <v>74</v>
@@ -3672,13 +3672,13 @@
         <v>79454</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M9" s="7">
         <v>189</v>
@@ -3687,13 +3687,13 @@
         <v>201081</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3708,13 @@
         <v>33157</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -3723,13 +3723,13 @@
         <v>31270</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -3738,13 +3738,13 @@
         <v>64427</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3812,13 @@
         <v>136058</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H12" s="7">
         <v>68</v>
@@ -3827,13 +3827,13 @@
         <v>74307</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M12" s="7">
         <v>188</v>
@@ -3842,13 +3842,13 @@
         <v>210365</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3863,13 @@
         <v>194630</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -3878,13 +3878,13 @@
         <v>156672</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>325</v>
@@ -3893,13 +3893,13 @@
         <v>351302</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3914,13 @@
         <v>73846</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>54</v>
@@ -3929,13 +3929,13 @@
         <v>59368</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>130</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -3944,13 +3944,13 @@
         <v>133215</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4018,13 @@
         <v>98556</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -4033,13 +4033,13 @@
         <v>67481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>146</v>
@@ -4048,13 +4048,13 @@
         <v>166037</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4069,13 @@
         <v>163531</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>97</v>
@@ -4084,13 +4084,13 @@
         <v>107833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>247</v>
@@ -4099,13 +4099,13 @@
         <v>271364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4120,13 @@
         <v>52590</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -4135,13 +4135,13 @@
         <v>54582</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>280</v>
+        <v>158</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M18" s="7">
         <v>98</v>
@@ -4150,13 +4150,13 @@
         <v>107172</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4224,13 @@
         <v>98586</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -4239,13 +4239,13 @@
         <v>80785</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -4254,13 +4254,13 @@
         <v>179371</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4275,13 @@
         <v>218376</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H21" s="7">
         <v>150</v>
@@ -4290,13 +4290,13 @@
         <v>159699</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M21" s="7">
         <v>362</v>
@@ -4305,13 +4305,13 @@
         <v>378074</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>114</v>
+        <v>296</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4326,13 @@
         <v>47376</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -4341,13 +4341,13 @@
         <v>53702</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>97</v>
@@ -4356,13 +4356,13 @@
         <v>101078</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4430,13 @@
         <v>406062</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>312</v>
+        <v>16</v>
       </c>
       <c r="H24" s="7">
         <v>237</v>
@@ -4445,13 +4445,13 @@
         <v>258188</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M24" s="7">
         <v>612</v>
@@ -4460,13 +4460,13 @@
         <v>664250</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4481,13 @@
         <v>730176</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H25" s="7">
         <v>472</v>
@@ -4496,13 +4496,13 @@
         <v>512066</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M25" s="7">
         <v>1163</v>
@@ -4511,13 +4511,13 @@
         <v>1242242</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4532,13 @@
         <v>216894</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H26" s="7">
         <v>189</v>
@@ -4547,13 +4547,13 @@
         <v>206016</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M26" s="7">
         <v>391</v>
@@ -4562,13 +4562,13 @@
         <v>422910</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,7 +4624,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4645,7 +4645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C49C42-332E-4B57-9930-92467BDE65D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00084572-F51C-445C-8408-25340A8A4A46}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4662,7 +4662,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4769,13 +4769,13 @@
         <v>12432</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4784,13 +4784,13 @@
         <v>5255</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4799,13 +4799,13 @@
         <v>17687</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4820,13 @@
         <v>36437</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4835,13 +4835,13 @@
         <v>20075</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -4850,13 +4850,13 @@
         <v>56512</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4871,13 @@
         <v>1032</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4886,13 +4886,13 @@
         <v>6500</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -4901,13 +4901,13 @@
         <v>7532</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4975,13 @@
         <v>36066</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -4990,13 +4990,13 @@
         <v>23805</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>58</v>
@@ -5005,13 +5005,13 @@
         <v>59870</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5026,13 @@
         <v>140025</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H9" s="7">
         <v>99</v>
@@ -5041,13 +5041,13 @@
         <v>99989</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M9" s="7">
         <v>235</v>
@@ -5056,13 +5056,13 @@
         <v>240013</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5077,13 @@
         <v>23559</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5092,13 +5092,13 @@
         <v>12786</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -5265,10 +5265,10 @@
         <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5283,13 @@
         <v>37824</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -5298,13 +5298,13 @@
         <v>37505</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -5313,13 +5313,13 @@
         <v>75329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5387,13 @@
         <v>53577</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -5402,13 +5402,13 @@
         <v>54791</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -5417,13 +5417,13 @@
         <v>108367</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,10 +5438,10 @@
         <v>218266</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>422</v>
@@ -5471,10 +5471,10 @@
         <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5489,13 @@
         <v>36151</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -5525,7 +5525,7 @@
         <v>435</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>305</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,13 +5593,13 @@
         <v>88292</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -5608,13 +5608,13 @@
         <v>57605</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -5623,13 +5623,13 @@
         <v>145897</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,13 +5644,13 @@
         <v>150266</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H21" s="7">
         <v>152</v>
@@ -5659,13 +5659,13 @@
         <v>156190</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M21" s="7">
         <v>302</v>
@@ -5674,13 +5674,13 @@
         <v>306456</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5695,13 @@
         <v>41305</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -5710,13 +5710,13 @@
         <v>42703</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>308</v>
+        <v>37</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>458</v>
+        <v>39</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -5835,7 +5835,7 @@
         <v>469</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>202</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5850,13 @@
         <v>772532</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H25" s="7">
         <v>582</v>
@@ -5865,13 +5865,13 @@
         <v>595473</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M25" s="7">
         <v>1302</v>
@@ -5880,13 +5880,13 @@
         <v>1368005</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5901,13 @@
         <v>139871</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="H26" s="7">
         <v>117</v>
@@ -5922,7 +5922,7 @@
         <v>483</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>101</v>
+        <v>322</v>
       </c>
       <c r="M26" s="7">
         <v>244</v>
@@ -5931,13 +5931,13 @@
         <v>262446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>484</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>485</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,7 +5993,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D88DAF4-E87D-4815-82B9-6DE27D8A5891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D04F4B6B-4E62-4F90-B977-A770494CF4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C34E8CF-4CB6-4A65-91D0-374016F72D3A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5BE2D0D2-6AD7-4A84-9220-3605CD5870CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="484">
   <si>
     <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>18,3%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
   </si>
   <si>
     <t>12,3%</t>
@@ -88,16 +88,16 @@
     <t>3,87%</t>
   </si>
   <si>
-    <t>32,7%</t>
+    <t>33,17%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
   </si>
   <si>
     <t>Igual</t>
@@ -106,28 +106,28 @@
     <t>72,53%</t>
   </si>
   <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
   </si>
   <si>
     <t>67,8%</t>
   </si>
   <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
   </si>
   <si>
     <t>71,07%</t>
   </si>
   <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
   </si>
   <si>
     <t>Más</t>
@@ -136,28 +136,28 @@
     <t>9,17%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>19,9%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -169,82 +169,82 @@
     <t>11,45%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
   </si>
   <si>
     <t>16,83%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>71,78%</t>
   </si>
   <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
   </si>
   <si>
     <t>74,81%</t>
   </si>
   <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
   </si>
   <si>
     <t>12,16%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -253,10 +253,10 @@
     <t>14,28%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
   </si>
   <si>
     <t>19,04%</t>
@@ -265,1237 +265,1231 @@
     <t>14,19%</t>
   </si>
   <si>
-    <t>24,59%</t>
+    <t>24,97%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>72,09%</t>
   </si>
   <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
   </si>
   <si>
     <t>62,42%</t>
   </si>
   <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
     <t>55,9%</t>
   </si>
   <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2016 (Tasa respuesta: 30,07%)</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>14,84%</t>
   </si>
   <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
   </si>
   <si>
     <t>59,09%</t>
   </si>
   <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2016 (Tasa respuesta: 30,07%)</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>71,0%</t>
   </si>
   <si>
     <t>68,46%</t>
   </si>
   <si>
-    <t>72,43%</t>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
+    <t>8,38%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
   </si>
   <si>
     <t>31,55%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
   </si>
   <si>
     <t>22,46%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
   </si>
   <si>
     <t>27,2%</t>
   </si>
   <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
   </si>
   <si>
     <t>53,69%</t>
   </si>
   <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
   </si>
   <si>
     <t>60,89%</t>
   </si>
   <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
   </si>
   <si>
     <t>57,14%</t>
   </si>
   <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>20,13%</t>
   </si>
   <si>
     <t>66,01%</t>
   </si>
   <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
   </si>
   <si>
     <t>65,56%</t>
   </si>
   <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
   </si>
   <si>
     <t>11,95%</t>
   </si>
   <si>
-    <t>10,05%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>11,35%</t>
+    <t>11,28%</t>
   </si>
   <si>
     <t>12,58%</t>
   </si>
   <si>
-    <t>11,24%</t>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +1901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BB3580-A894-4002-B030-93683731F661}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA368FBE-3A3F-451F-B9D5-41AB7A00FF04}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2912,7 +2906,7 @@
         <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="H21" s="7">
         <v>167</v>
@@ -2921,13 +2915,13 @@
         <v>173523</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>454</v>
@@ -2936,13 +2930,13 @@
         <v>446360</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2951,13 @@
         <v>68957</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>66</v>
@@ -2972,13 +2966,13 @@
         <v>67535</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>135</v>
@@ -2990,7 +2984,7 @@
         <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>150</v>
@@ -3079,10 +3073,10 @@
         <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>362</v>
@@ -3091,13 +3085,13 @@
         <v>375775</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3106,13 @@
         <v>975027</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>515</v>
@@ -3127,10 +3121,10 @@
         <v>526495</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>164</v>
@@ -3196,10 +3190,10 @@
         <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,7 +3249,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3276,7 +3270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D371EA-6AB4-4674-92B2-2D6C9FAA0638}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634591D8-E23B-4D12-9D5D-E189B58F804C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3293,7 +3287,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3400,13 +3394,13 @@
         <v>9723</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3415,13 +3409,13 @@
         <v>4517</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3430,13 +3424,13 @@
         <v>14240</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3445,13 @@
         <v>32012</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -3466,13 +3460,13 @@
         <v>8408</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -3484,10 +3478,10 @@
         <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,10 +3496,10 @@
         <v>9925</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>197</v>
@@ -3663,7 +3657,7 @@
         <v>214</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="H9" s="7">
         <v>74</v>
@@ -3672,13 +3666,13 @@
         <v>79454</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M9" s="7">
         <v>189</v>
@@ -3687,7 +3681,7 @@
         <v>201081</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>219</v>
@@ -3932,10 +3926,10 @@
         <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -3944,13 +3938,13 @@
         <v>133215</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,10 +4012,10 @@
         <v>98556</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>258</v>
@@ -4072,10 +4066,10 @@
         <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>97</v>
@@ -4084,13 +4078,13 @@
         <v>107833</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>247</v>
@@ -4099,13 +4093,13 @@
         <v>271364</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4114,13 @@
         <v>52590</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -4138,7 +4132,7 @@
         <v>201</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>277</v>
@@ -4436,7 +4430,7 @@
         <v>308</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>16</v>
+        <v>309</v>
       </c>
       <c r="H24" s="7">
         <v>237</v>
@@ -4445,13 +4439,13 @@
         <v>258188</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M24" s="7">
         <v>612</v>
@@ -4460,13 +4454,13 @@
         <v>664250</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,10 +4478,10 @@
         <v>242</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>316</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H25" s="7">
         <v>472</v>
@@ -4496,13 +4490,13 @@
         <v>512066</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M25" s="7">
         <v>1163</v>
@@ -4511,13 +4505,13 @@
         <v>1242242</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4526,13 @@
         <v>216894</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>323</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H26" s="7">
         <v>189</v>
@@ -4547,13 +4541,13 @@
         <v>206016</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M26" s="7">
         <v>391</v>
@@ -4562,13 +4556,13 @@
         <v>422910</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>330</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,7 +4618,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4645,7 +4639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00084572-F51C-445C-8408-25340A8A4A46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F0217E-01DE-4213-B1EF-DBFEC2271180}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4907,7 +4901,7 @@
         <v>357</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4969,13 @@
         <v>36066</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -4990,13 +4984,13 @@
         <v>23805</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M8" s="7">
         <v>58</v>
@@ -5005,13 +4999,13 @@
         <v>59870</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5020,13 @@
         <v>140025</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H9" s="7">
         <v>99</v>
@@ -5041,13 +5035,13 @@
         <v>99989</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M9" s="7">
         <v>235</v>
@@ -5056,13 +5050,13 @@
         <v>240013</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5071,13 @@
         <v>23559</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5092,13 +5086,13 @@
         <v>12786</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>381</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -5107,13 +5101,13 @@
         <v>36345</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>382</v>
+        <v>102</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5175,13 @@
         <v>67569</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H12" s="7">
         <v>54</v>
@@ -5196,13 +5190,13 @@
         <v>56779</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M12" s="7">
         <v>114</v>
@@ -5211,13 +5205,13 @@
         <v>124348</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5226,13 @@
         <v>227538</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>170</v>
@@ -5247,13 +5241,13 @@
         <v>173722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>377</v>
@@ -5262,13 +5256,13 @@
         <v>401260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5277,13 @@
         <v>37824</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>403</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -5298,13 +5292,13 @@
         <v>37505</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -5313,13 +5307,13 @@
         <v>75329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5381,13 @@
         <v>53577</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -5402,13 +5396,13 @@
         <v>54791</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -5417,13 +5411,13 @@
         <v>108367</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>419</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5432,13 @@
         <v>218266</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>140</v>
@@ -5453,13 +5447,13 @@
         <v>145498</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>334</v>
@@ -5468,13 +5462,13 @@
         <v>363763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5483,13 @@
         <v>36151</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -5504,13 +5498,13 @@
         <v>23081</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -5519,13 +5513,13 @@
         <v>59232</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,13 +5587,13 @@
         <v>88292</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -5608,13 +5602,13 @@
         <v>57605</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -5623,13 +5617,13 @@
         <v>145897</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,13 +5638,13 @@
         <v>150266</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H21" s="7">
         <v>152</v>
@@ -5659,13 +5653,13 @@
         <v>156190</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M21" s="7">
         <v>302</v>
@@ -5674,13 +5668,13 @@
         <v>306456</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5689,13 @@
         <v>41305</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -5710,13 +5704,13 @@
         <v>42703</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>37</v>
+        <v>454</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>39</v>
+        <v>455</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -5725,13 +5719,13 @@
         <v>84008</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5793,13 @@
         <v>257936</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H24" s="7">
         <v>188</v>
@@ -5814,13 +5808,13 @@
         <v>198234</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M24" s="7">
         <v>429</v>
@@ -5829,13 +5823,13 @@
         <v>456170</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>470</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5844,13 @@
         <v>772532</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H25" s="7">
         <v>582</v>
@@ -5865,13 +5859,13 @@
         <v>595473</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M25" s="7">
         <v>1302</v>
@@ -5880,13 +5874,13 @@
         <v>1368005</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5895,13 @@
         <v>139871</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>333</v>
+        <v>478</v>
       </c>
       <c r="H26" s="7">
         <v>117</v>
@@ -5916,13 +5910,13 @@
         <v>122575</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>322</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>244</v>
@@ -5931,13 +5925,13 @@
         <v>262446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>249</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,7 +5987,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D04F4B6B-4E62-4F90-B977-A770494CF4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E10F2BD4-98C9-42B3-B6F6-466A305A7396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5BE2D0D2-6AD7-4A84-9220-3605CD5870CD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{10ED2A81-CB6B-4647-A9E9-8726C956C46D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="410">
   <si>
     <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -67,1176 +67,957 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Menos</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
   </si>
   <si>
     <t>Igual</t>
   </si>
   <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
   </si>
   <si>
     <t>Más</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2016 (Tasa respuesta: 30,07%)</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
   </si>
   <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2016 (Tasa respuesta: 30,07%)</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
     <t>8,01%</t>
   </si>
   <si>
@@ -1487,9 +1268,6 @@
   </si>
   <si>
     <t>11,1%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
   </si>
 </sst>
 </file>
@@ -1901,8 +1679,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA368FBE-3A3F-451F-B9D5-41AB7A00FF04}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A4454D-F7C9-495A-80D7-D48D26A41BF1}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2019,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>8523</v>
+        <v>39623</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2034,10 +1812,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>2547</v>
+        <v>26300</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2049,10 +1827,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="N4" s="7">
-        <v>11070</v>
+        <v>65924</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2070,10 +1848,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="D5" s="7">
-        <v>33777</v>
+        <v>241293</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2085,10 +1863,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="I5" s="7">
-        <v>14033</v>
+        <v>115316</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2100,10 +1878,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>46</v>
+        <v>349</v>
       </c>
       <c r="N5" s="7">
-        <v>47809</v>
+        <v>356609</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2121,10 +1899,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>4271</v>
+        <v>37315</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2136,10 +1914,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>4118</v>
+        <v>20183</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2151,10 +1929,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="N6" s="7">
-        <v>8390</v>
+        <v>57497</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2172,10 +1950,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>309</v>
       </c>
       <c r="D7" s="7">
-        <v>46571</v>
+        <v>318231</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2187,10 +1965,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="I7" s="7">
-        <v>20698</v>
+        <v>161799</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2202,10 +1980,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>66</v>
+        <v>471</v>
       </c>
       <c r="N7" s="7">
-        <v>67269</v>
+        <v>480030</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2225,10 +2003,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D8" s="7">
-        <v>31100</v>
+        <v>58005</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2240,10 +2018,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I8" s="7">
-        <v>23753</v>
+        <v>43241</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2255,10 +2033,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="N8" s="7">
-        <v>54854</v>
+        <v>101246</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -2276,10 +2054,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="D9" s="7">
-        <v>207516</v>
+        <v>292901</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2291,10 +2069,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="I9" s="7">
-        <v>101284</v>
+        <v>141785</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2306,10 +2084,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>303</v>
+        <v>407</v>
       </c>
       <c r="N9" s="7">
-        <v>308800</v>
+        <v>434686</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2327,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>33043</v>
+        <v>55374</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2342,10 +2120,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>16064</v>
+        <v>42111</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2357,10 +2135,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="N10" s="7">
-        <v>49108</v>
+        <v>97484</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2378,10 +2156,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="D11" s="7">
-        <v>271660</v>
+        <v>406280</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2393,10 +2171,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="I11" s="7">
-        <v>141101</v>
+        <v>227136</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2408,10 +2186,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>405</v>
+        <v>593</v>
       </c>
       <c r="N11" s="7">
-        <v>412761</v>
+        <v>633416</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2431,10 +2209,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>58005</v>
+        <v>54238</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2446,10 +2224,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I12" s="7">
-        <v>43241</v>
+        <v>27081</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2461,10 +2239,10 @@
         <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="N12" s="7">
-        <v>101246</v>
+        <v>81319</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -2482,10 +2260,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c r="D13" s="7">
-        <v>292901</v>
+        <v>167995</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2497,10 +2275,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I13" s="7">
-        <v>141785</v>
+        <v>95870</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -2512,10 +2290,10 @@
         <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>407</v>
+        <v>258</v>
       </c>
       <c r="N13" s="7">
-        <v>434686</v>
+        <v>263866</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -2533,10 +2311,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>55374</v>
+        <v>30930</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -2548,10 +2326,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I14" s="7">
-        <v>42111</v>
+        <v>47049</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -2563,10 +2341,10 @@
         <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="N14" s="7">
-        <v>97484</v>
+        <v>77979</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -2584,10 +2362,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>378</v>
+        <v>237</v>
       </c>
       <c r="D15" s="7">
-        <v>406280</v>
+        <v>253163</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -2599,10 +2377,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="I15" s="7">
-        <v>227136</v>
+        <v>170001</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2614,10 +2392,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>593</v>
+        <v>413</v>
       </c>
       <c r="N15" s="7">
-        <v>633416</v>
+        <v>423164</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2637,10 +2415,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>54238</v>
+        <v>63951</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -2652,10 +2430,10 @@
         <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>27081</v>
+        <v>63336</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
@@ -2667,10 +2445,10 @@
         <v>103</v>
       </c>
       <c r="M16" s="7">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="N16" s="7">
-        <v>81319</v>
+        <v>127287</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>104</v>
@@ -2688,10 +2466,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="D17" s="7">
-        <v>167995</v>
+        <v>272836</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -2700,37 +2478,37 @@
         <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="7">
+        <v>167</v>
+      </c>
+      <c r="I17" s="7">
+        <v>173523</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="7">
-        <v>100</v>
-      </c>
-      <c r="I17" s="7">
-        <v>95870</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>454</v>
+      </c>
+      <c r="N17" s="7">
+        <v>446360</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="7">
-        <v>258</v>
-      </c>
-      <c r="N17" s="7">
-        <v>263866</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,49 +2517,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D18" s="7">
-        <v>30930</v>
+        <v>68957</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>66</v>
+      </c>
+      <c r="I18" s="7">
+        <v>67535</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="7">
-        <v>49</v>
-      </c>
-      <c r="I18" s="7">
-        <v>47049</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>135</v>
+      </c>
+      <c r="N18" s="7">
+        <v>136492</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M18" s="7">
-        <v>77</v>
-      </c>
-      <c r="N18" s="7">
-        <v>77979</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,10 +2568,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>237</v>
+        <v>423</v>
       </c>
       <c r="D19" s="7">
-        <v>253163</v>
+        <v>405745</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2805,10 +2583,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>176</v>
+        <v>292</v>
       </c>
       <c r="I19" s="7">
-        <v>170001</v>
+        <v>304394</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2820,10 +2598,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>413</v>
+        <v>715</v>
       </c>
       <c r="N19" s="7">
-        <v>423164</v>
+        <v>710139</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2837,55 +2615,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="D20" s="7">
-        <v>63951</v>
+        <v>215817</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="7">
+        <v>152</v>
+      </c>
+      <c r="I20" s="7">
+        <v>159958</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="7">
-        <v>59</v>
-      </c>
-      <c r="I20" s="7">
-        <v>63336</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>362</v>
+      </c>
+      <c r="N20" s="7">
+        <v>375775</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="M20" s="7">
-        <v>126</v>
-      </c>
-      <c r="N20" s="7">
-        <v>127287</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,49 +2672,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>287</v>
+        <v>953</v>
       </c>
       <c r="D21" s="7">
-        <v>272836</v>
+        <v>975027</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="7">
+        <v>515</v>
+      </c>
+      <c r="I21" s="7">
+        <v>526495</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="K21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="7">
-        <v>167</v>
-      </c>
-      <c r="I21" s="7">
-        <v>173523</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>1468</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1501521</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="M21" s="7">
-        <v>454</v>
-      </c>
-      <c r="N21" s="7">
-        <v>446360</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,49 +2723,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="D22" s="7">
-        <v>68957</v>
+        <v>192576</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="7">
+        <v>178</v>
+      </c>
+      <c r="I22" s="7">
+        <v>176877</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="7">
-        <v>66</v>
-      </c>
-      <c r="I22" s="7">
-        <v>67535</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>362</v>
+      </c>
+      <c r="N22" s="7">
+        <v>369453</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="M22" s="7">
-        <v>135</v>
-      </c>
-      <c r="N22" s="7">
-        <v>136492</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,10 +2774,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>423</v>
+        <v>1347</v>
       </c>
       <c r="D23" s="7">
-        <v>405745</v>
+        <v>1383420</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3011,10 +2789,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>292</v>
+        <v>845</v>
       </c>
       <c r="I23" s="7">
-        <v>304394</v>
+        <v>863330</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3026,10 +2804,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>715</v>
+        <v>2192</v>
       </c>
       <c r="N23" s="7">
-        <v>710139</v>
+        <v>2246750</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3042,222 +2820,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>210</v>
-      </c>
-      <c r="D24" s="7">
-        <v>215817</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="7">
-        <v>152</v>
-      </c>
-      <c r="I24" s="7">
-        <v>159958</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M24" s="7">
-        <v>362</v>
-      </c>
-      <c r="N24" s="7">
-        <v>375775</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>953</v>
-      </c>
-      <c r="D25" s="7">
-        <v>975027</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H25" s="7">
-        <v>515</v>
-      </c>
-      <c r="I25" s="7">
-        <v>526495</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1468</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1501521</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>184</v>
-      </c>
-      <c r="D26" s="7">
-        <v>192576</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" s="7">
-        <v>178</v>
-      </c>
-      <c r="I26" s="7">
-        <v>176877</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M26" s="7">
-        <v>362</v>
-      </c>
-      <c r="N26" s="7">
-        <v>369453</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1347</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1383420</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>845</v>
-      </c>
-      <c r="I27" s="7">
-        <v>863330</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2192</v>
-      </c>
-      <c r="N27" s="7">
-        <v>2246750</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3270,8 +2841,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634591D8-E23B-4D12-9D5D-E189B58F804C}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0877E66-A23D-46DE-9BA0-08CB057C2DE8}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3287,7 +2858,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3388,49 +2959,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7">
-        <v>9723</v>
+        <v>72862</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>4517</v>
+        <v>35615</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="N4" s="7">
-        <v>14240</v>
+        <v>108477</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,49 +3010,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="D5" s="7">
-        <v>32012</v>
+        <v>153639</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="I5" s="7">
-        <v>8408</v>
+        <v>87862</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="N5" s="7">
-        <v>40420</v>
+        <v>241501</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,49 +3061,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7">
-        <v>9925</v>
+        <v>43082</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I6" s="7">
-        <v>7093</v>
+        <v>38363</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="M6" s="7">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="N6" s="7">
-        <v>17018</v>
+        <v>81445</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,10 +3112,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>52</v>
+        <v>260</v>
       </c>
       <c r="D7" s="7">
-        <v>51660</v>
+        <v>269583</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3556,10 +3127,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="I7" s="7">
-        <v>20018</v>
+        <v>161840</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3571,10 +3142,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>69</v>
+        <v>408</v>
       </c>
       <c r="N7" s="7">
-        <v>71678</v>
+        <v>431423</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3594,49 +3165,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="D8" s="7">
-        <v>63139</v>
+        <v>136058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="H8" s="7">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I8" s="7">
-        <v>31099</v>
+        <v>74307</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="N8" s="7">
-        <v>94237</v>
+        <v>210365</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,49 +3216,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="D9" s="7">
-        <v>121627</v>
+        <v>194630</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="H9" s="7">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="I9" s="7">
-        <v>79454</v>
+        <v>156672</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="M9" s="7">
-        <v>189</v>
+        <v>325</v>
       </c>
       <c r="N9" s="7">
-        <v>201081</v>
+        <v>351302</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,49 +3267,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7">
-        <v>33157</v>
+        <v>73846</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I10" s="7">
-        <v>31270</v>
+        <v>59368</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="N10" s="7">
-        <v>64427</v>
+        <v>133215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,10 +3318,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="D11" s="7">
-        <v>217922</v>
+        <v>404535</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3762,10 +3333,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="I11" s="7">
-        <v>141823</v>
+        <v>290347</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3777,10 +3348,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>339</v>
+        <v>635</v>
       </c>
       <c r="N11" s="7">
-        <v>359745</v>
+        <v>694882</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3800,49 +3371,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D12" s="7">
-        <v>136058</v>
+        <v>98556</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="H12" s="7">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I12" s="7">
-        <v>74307</v>
+        <v>67481</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="M12" s="7">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="N12" s="7">
-        <v>210365</v>
+        <v>166037</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,49 +3422,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="D13" s="7">
-        <v>194630</v>
+        <v>163531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="I13" s="7">
-        <v>156672</v>
+        <v>107833</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="N13" s="7">
-        <v>351302</v>
+        <v>271364</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,49 +3473,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>73846</v>
+        <v>52590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I14" s="7">
-        <v>59368</v>
+        <v>54582</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="N14" s="7">
-        <v>133215</v>
+        <v>107172</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,10 +3524,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="D15" s="7">
-        <v>404535</v>
+        <v>314677</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3968,10 +3539,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="I15" s="7">
-        <v>290347</v>
+        <v>229896</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3983,10 +3554,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>635</v>
+        <v>491</v>
       </c>
       <c r="N15" s="7">
-        <v>694882</v>
+        <v>544573</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4006,49 +3577,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D16" s="7">
-        <v>98556</v>
+        <v>98586</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I16" s="7">
-        <v>67481</v>
+        <v>80785</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="N16" s="7">
-        <v>166037</v>
+        <v>179371</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,49 +3628,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>212</v>
+      </c>
+      <c r="D17" s="7">
+        <v>218375</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" s="7">
         <v>150</v>
       </c>
-      <c r="D17" s="7">
-        <v>163531</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="7">
-        <v>97</v>
-      </c>
       <c r="I17" s="7">
-        <v>107833</v>
+        <v>159699</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
-        <v>247</v>
+        <v>362</v>
       </c>
       <c r="N17" s="7">
-        <v>271364</v>
+        <v>378074</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,49 +3679,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7">
-        <v>52590</v>
+        <v>47376</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="H18" s="7">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I18" s="7">
-        <v>54582</v>
+        <v>53702</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="M18" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N18" s="7">
-        <v>107172</v>
+        <v>101078</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,10 +3730,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>285</v>
+        <v>353</v>
       </c>
       <c r="D19" s="7">
-        <v>314677</v>
+        <v>364337</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4174,10 +3745,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="I19" s="7">
-        <v>229896</v>
+        <v>294186</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4189,10 +3760,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>491</v>
+        <v>632</v>
       </c>
       <c r="N19" s="7">
-        <v>544573</v>
+        <v>658524</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4206,55 +3777,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>96</v>
+        <v>375</v>
       </c>
       <c r="D20" s="7">
-        <v>98586</v>
+        <v>406062</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="H20" s="7">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="I20" s="7">
-        <v>80785</v>
+        <v>258188</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
-        <v>173</v>
+        <v>612</v>
       </c>
       <c r="N20" s="7">
-        <v>179371</v>
+        <v>664250</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,49 +3834,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>212</v>
+        <v>691</v>
       </c>
       <c r="D21" s="7">
-        <v>218376</v>
+        <v>730176</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>189</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="H21" s="7">
-        <v>150</v>
+        <v>472</v>
       </c>
       <c r="I21" s="7">
-        <v>159699</v>
+        <v>512066</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="M21" s="7">
-        <v>362</v>
+        <v>1163</v>
       </c>
       <c r="N21" s="7">
-        <v>378074</v>
+        <v>1242242</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,49 +3885,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="D22" s="7">
-        <v>47376</v>
+        <v>216894</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="I22" s="7">
-        <v>53702</v>
+        <v>206016</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
-        <v>97</v>
+        <v>391</v>
       </c>
       <c r="N22" s="7">
-        <v>101078</v>
+        <v>422910</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,10 +3936,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>353</v>
+        <v>1268</v>
       </c>
       <c r="D23" s="7">
-        <v>364338</v>
+        <v>1353132</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4380,10 +3951,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>279</v>
+        <v>898</v>
       </c>
       <c r="I23" s="7">
-        <v>294186</v>
+        <v>976270</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4395,10 +3966,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>632</v>
+        <v>2166</v>
       </c>
       <c r="N23" s="7">
-        <v>658524</v>
+        <v>2329402</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4411,222 +3982,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>375</v>
-      </c>
-      <c r="D24" s="7">
-        <v>406062</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H24" s="7">
-        <v>237</v>
-      </c>
-      <c r="I24" s="7">
-        <v>258188</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="M24" s="7">
-        <v>612</v>
-      </c>
-      <c r="N24" s="7">
-        <v>664250</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>691</v>
-      </c>
-      <c r="D25" s="7">
-        <v>730176</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H25" s="7">
-        <v>472</v>
-      </c>
-      <c r="I25" s="7">
-        <v>512066</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1163</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1242242</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>202</v>
-      </c>
-      <c r="D26" s="7">
-        <v>216894</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H26" s="7">
-        <v>189</v>
-      </c>
-      <c r="I26" s="7">
-        <v>206016</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M26" s="7">
-        <v>391</v>
-      </c>
-      <c r="N26" s="7">
-        <v>422910</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1268</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1353132</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>898</v>
-      </c>
-      <c r="I27" s="7">
-        <v>976270</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2166</v>
-      </c>
-      <c r="N27" s="7">
-        <v>2329402</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4639,8 +4003,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F0217E-01DE-4213-B1EF-DBFEC2271180}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB982C9-B654-49A2-9E4C-2BDFC80FA53D}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4656,7 +4020,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4757,49 +4121,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D4" s="7">
-        <v>12432</v>
+        <v>48498</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>5255</v>
+        <v>29059</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="N4" s="7">
-        <v>17687</v>
+        <v>77557</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,49 +4172,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="D5" s="7">
-        <v>36437</v>
+        <v>176462</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="I5" s="7">
-        <v>20075</v>
+        <v>120063</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>289</v>
       </c>
       <c r="N5" s="7">
-        <v>56512</v>
+        <v>296526</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,49 +4223,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7">
-        <v>1032</v>
+        <v>24590</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I6" s="7">
-        <v>6500</v>
+        <v>19286</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="N6" s="7">
-        <v>7532</v>
+        <v>43877</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,10 +4274,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="D7" s="7">
-        <v>49901</v>
+        <v>249550</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4925,10 +4289,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="I7" s="7">
-        <v>31830</v>
+        <v>168409</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4940,10 +4304,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="N7" s="7">
-        <v>81731</v>
+        <v>417960</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4963,49 +4327,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7">
-        <v>36066</v>
+        <v>67569</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I8" s="7">
-        <v>23805</v>
+        <v>56779</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="N8" s="7">
-        <v>59870</v>
+        <v>124348</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,49 +4378,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D9" s="7">
-        <v>140025</v>
+        <v>227538</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>316</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="H9" s="7">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="I9" s="7">
-        <v>99989</v>
+        <v>173722</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="M9" s="7">
-        <v>235</v>
+        <v>377</v>
       </c>
       <c r="N9" s="7">
-        <v>240013</v>
+        <v>401260</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,49 +4429,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>23559</v>
+        <v>37824</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>12786</v>
+        <v>37505</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="N10" s="7">
-        <v>36345</v>
+        <v>75329</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>331</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,10 +4480,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>190</v>
+        <v>301</v>
       </c>
       <c r="D11" s="7">
-        <v>199650</v>
+        <v>332931</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5131,10 +4495,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="I11" s="7">
-        <v>136579</v>
+        <v>268006</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5146,10 +4510,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>326</v>
+        <v>559</v>
       </c>
       <c r="N11" s="7">
-        <v>336228</v>
+        <v>600937</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5169,49 +4533,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7">
-        <v>67569</v>
+        <v>53577</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="H12" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>56779</v>
+        <v>54791</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="M12" s="7">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="N12" s="7">
-        <v>124348</v>
+        <v>108367</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>388</v>
+        <v>249</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,49 +4584,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D13" s="7">
-        <v>227538</v>
+        <v>218266</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="I13" s="7">
-        <v>173722</v>
+        <v>145498</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="N13" s="7">
-        <v>401260</v>
+        <v>363763</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,49 +4635,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>37824</v>
+        <v>36151</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I14" s="7">
-        <v>37505</v>
+        <v>23081</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="M14" s="7">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="N14" s="7">
-        <v>75329</v>
+        <v>59232</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,10 +4686,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>332931</v>
+        <v>307994</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5337,10 +4701,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="I15" s="7">
-        <v>268006</v>
+        <v>223370</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5352,10 +4716,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>559</v>
+        <v>491</v>
       </c>
       <c r="N15" s="7">
-        <v>600937</v>
+        <v>531363</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5375,49 +4739,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="D16" s="7">
-        <v>53577</v>
+        <v>88292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="7">
-        <v>54791</v>
+        <v>57605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="N16" s="7">
-        <v>108367</v>
+        <v>145897</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,49 +4790,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="D17" s="7">
-        <v>218266</v>
+        <v>150266</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="I17" s="7">
-        <v>145498</v>
+        <v>156190</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="N17" s="7">
-        <v>363763</v>
+        <v>306456</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,49 +4841,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D18" s="7">
-        <v>36151</v>
+        <v>41305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>76</v>
+        <v>379</v>
       </c>
       <c r="H18" s="7">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I18" s="7">
-        <v>23081</v>
+        <v>42703</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="M18" s="7">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="N18" s="7">
-        <v>59232</v>
+        <v>84008</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>430</v>
+        <v>384</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,10 +4892,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D19" s="7">
-        <v>307994</v>
+        <v>279863</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5543,10 +4907,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="I19" s="7">
-        <v>223370</v>
+        <v>256497</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5558,10 +4922,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="N19" s="7">
-        <v>531363</v>
+        <v>536361</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5575,55 +4939,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="D20" s="7">
-        <v>88292</v>
+        <v>257936</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="I20" s="7">
-        <v>57605</v>
+        <v>198234</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>435</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
-        <v>138</v>
+        <v>429</v>
       </c>
       <c r="N20" s="7">
-        <v>145897</v>
+        <v>456170</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,49 +4996,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>150</v>
+        <v>720</v>
       </c>
       <c r="D21" s="7">
-        <v>150266</v>
+        <v>772532</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>441</v>
+        <v>394</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="H21" s="7">
-        <v>152</v>
+        <v>582</v>
       </c>
       <c r="I21" s="7">
-        <v>156190</v>
+        <v>595473</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="M21" s="7">
-        <v>302</v>
+        <v>1302</v>
       </c>
       <c r="N21" s="7">
-        <v>306456</v>
+        <v>1368005</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>449</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,49 +5047,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D22" s="7">
-        <v>41305</v>
+        <v>139871</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>403</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="H22" s="7">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="I22" s="7">
-        <v>42703</v>
+        <v>122575</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>73</v>
       </c>
       <c r="M22" s="7">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="N22" s="7">
-        <v>84008</v>
+        <v>262446</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>456</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>458</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,10 +5098,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>276</v>
+        <v>1088</v>
       </c>
       <c r="D23" s="7">
-        <v>279863</v>
+        <v>1170338</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -5749,10 +5113,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>245</v>
+        <v>887</v>
       </c>
       <c r="I23" s="7">
-        <v>256497</v>
+        <v>916282</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5764,10 +5128,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>521</v>
+        <v>1975</v>
       </c>
       <c r="N23" s="7">
-        <v>536361</v>
+        <v>2086620</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -5780,222 +5144,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>241</v>
-      </c>
-      <c r="D24" s="7">
-        <v>257936</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="H24" s="7">
-        <v>188</v>
-      </c>
-      <c r="I24" s="7">
-        <v>198234</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="M24" s="7">
-        <v>429</v>
-      </c>
-      <c r="N24" s="7">
-        <v>456170</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>720</v>
-      </c>
-      <c r="D25" s="7">
-        <v>772532</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="H25" s="7">
-        <v>582</v>
-      </c>
-      <c r="I25" s="7">
-        <v>595473</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1302</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1368005</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>127</v>
-      </c>
-      <c r="D26" s="7">
-        <v>139871</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="H26" s="7">
-        <v>117</v>
-      </c>
-      <c r="I26" s="7">
-        <v>122575</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M26" s="7">
-        <v>244</v>
-      </c>
-      <c r="N26" s="7">
-        <v>262446</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1088</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1170338</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>887</v>
-      </c>
-      <c r="I27" s="7">
-        <v>916282</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1975</v>
-      </c>
-      <c r="N27" s="7">
-        <v>2086620</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
